--- a/Recycling/SwFD/SwFD_Max.xlsx
+++ b/Recycling/SwFD/SwFD_Max.xlsx
@@ -929,7 +929,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>312457.4339427827</v>
+        <v>312457.4339427826</v>
       </c>
     </row>
   </sheetData>
@@ -2039,7 +2039,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>722103715.0298892</v>
+        <v>722103715.0298891</v>
       </c>
     </row>
   </sheetData>
@@ -2187,7 +2187,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1606445597.227885</v>
+        <v>1606445597.227886</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2409,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2172718513.544892</v>
+        <v>2172718513.544891</v>
       </c>
     </row>
   </sheetData>
@@ -2557,7 +2557,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2991052739.195879</v>
+        <v>2991052739.19588</v>
       </c>
     </row>
   </sheetData>
@@ -3001,7 +3001,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5978923508.275218</v>
+        <v>5978923508.275217</v>
       </c>
     </row>
   </sheetData>
@@ -3445,7 +3445,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9913199438.548151</v>
+        <v>9913199438.548153</v>
       </c>
     </row>
   </sheetData>
@@ -4259,7 +4259,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>60485429904.05517</v>
+        <v>60485429904.05516</v>
       </c>
     </row>
   </sheetData>
@@ -5321,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4926276850.282044</v>
+        <v>4926276850.282043</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5369,7 +5369,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>21126988180.55697</v>
+        <v>21126988180.55698</v>
       </c>
     </row>
   </sheetData>
@@ -5395,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>926688925.1247469</v>
+        <v>926688925.1247468</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6520500249.281978</v>
+        <v>6520500249.281977</v>
       </c>
     </row>
   </sheetData>
@@ -6627,7 +6627,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7317746301.707688</v>
+        <v>7317746301.707689</v>
       </c>
     </row>
   </sheetData>
@@ -6701,7 +6701,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7986759162.226144</v>
+        <v>7986759162.226143</v>
       </c>
     </row>
   </sheetData>
@@ -6775,7 +6775,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8263143987.256288</v>
+        <v>8263143987.256289</v>
       </c>
     </row>
   </sheetData>
@@ -6923,7 +6923,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7388914198.52017</v>
+        <v>7388914198.520169</v>
       </c>
     </row>
   </sheetData>
